--- a/teaching/traditional_assets/database/data/turkey/turkey_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_entertainment.xlsx
@@ -642,10 +642,10 @@
         <v>0.3901408450704225</v>
       </c>
       <c r="X2">
-        <v>0.1740991247878272</v>
+        <v>0.1755391088970272</v>
       </c>
       <c r="Y2">
-        <v>0.2160417202825953</v>
+        <v>0.2146017361733953</v>
       </c>
       <c r="Z2">
         <v>0.5849690152100165</v>
@@ -654,10 +654,10 @@
         <v>-0.06132502261988539</v>
       </c>
       <c r="AB2">
-        <v>0.1263472160798759</v>
+        <v>0.1249859114804322</v>
       </c>
       <c r="AC2">
-        <v>-0.1876722386997613</v>
+        <v>-0.1863109341003176</v>
       </c>
       <c r="AD2">
         <v>872.197</v>
@@ -770,10 +770,10 @@
         <v>0.3901408450704225</v>
       </c>
       <c r="X3">
-        <v>0.2459435383443316</v>
+        <v>0.2509871020863186</v>
       </c>
       <c r="Y3">
-        <v>0.144197306726091</v>
+        <v>0.1391537429841039</v>
       </c>
       <c r="Z3">
         <v>0.4864611417184386</v>
@@ -782,10 +782,10 @@
         <v>-0.0155902004454343</v>
       </c>
       <c r="AB3">
-        <v>0.1333861365996747</v>
+        <v>0.1320898544138489</v>
       </c>
       <c r="AC3">
-        <v>-0.148976337045109</v>
+        <v>-0.1476800548592832</v>
       </c>
       <c r="AD3">
         <v>130.2</v>
@@ -898,10 +898,10 @@
         <v>0.677710843373494</v>
       </c>
       <c r="X4">
-        <v>0.1683622716034404</v>
+        <v>0.1695145060287309</v>
       </c>
       <c r="Y4">
-        <v>0.5093485717700535</v>
+        <v>0.5081963373447631</v>
       </c>
       <c r="Z4">
         <v>0.7705998681608437</v>
@@ -910,10 +910,10 @@
         <v>-0.02821357943309163</v>
       </c>
       <c r="AB4">
-        <v>0.1257114998414511</v>
+        <v>0.1243419199509988</v>
       </c>
       <c r="AC4">
-        <v>-0.1539250792745427</v>
+        <v>-0.1525554993840904</v>
       </c>
       <c r="AD4">
         <v>200.7</v>
@@ -1026,10 +1026,10 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="X5">
-        <v>0.1740991247878272</v>
+        <v>0.1755391088970272</v>
       </c>
       <c r="Y5">
-        <v>0.1973294466407442</v>
+        <v>0.1958894625315443</v>
       </c>
       <c r="Z5">
         <v>0.3890620287523877</v>
@@ -1038,10 +1038,10 @@
         <v>-0.06132502261988539</v>
       </c>
       <c r="AB5">
-        <v>0.1263472160798759</v>
+        <v>0.1249859114804322</v>
       </c>
       <c r="AC5">
-        <v>-0.1876722386997613</v>
+        <v>-0.1863109341003176</v>
       </c>
       <c r="AD5">
         <v>297.6</v>
@@ -1154,10 +1154,10 @@
         <v>0.4052805280528053</v>
       </c>
       <c r="X6">
-        <v>0.2600980205542924</v>
+        <v>0.2658515462999966</v>
       </c>
       <c r="Y6">
-        <v>0.1451825074985129</v>
+        <v>0.1394289817528087</v>
       </c>
       <c r="Z6">
         <v>0.8284095019896298</v>
@@ -1166,10 +1166,10 @@
         <v>-0.2616664656939587</v>
       </c>
       <c r="AB6">
-        <v>0.1319458447132798</v>
+        <v>0.1306574189839833</v>
       </c>
       <c r="AC6">
-        <v>-0.3936123104072385</v>
+        <v>-0.392323884677942</v>
       </c>
       <c r="AD6">
         <v>243.2</v>
@@ -1279,10 +1279,10 @@
         <v>-0.7580645161290323</v>
       </c>
       <c r="X7">
-        <v>0.1167481679085175</v>
+        <v>0.1153115367055389</v>
       </c>
       <c r="Y7">
-        <v>-0.8748126840375497</v>
+        <v>-0.8733760528345712</v>
       </c>
       <c r="Z7">
         <v>0.01295641931684334</v>
@@ -1291,10 +1291,10 @@
         <v>-0.724381625441696</v>
       </c>
       <c r="AB7">
-        <v>0.1158416271149006</v>
+        <v>0.1143435684093837</v>
       </c>
       <c r="AC7">
-        <v>-0.8402232525565967</v>
+        <v>-0.8387251938510798</v>
       </c>
       <c r="AD7">
         <v>0.497</v>
